--- a/年度処理件数集計ツール.xlsx
+++ b/年度処理件数集計ツール.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
   <si>
     <t>【戸籍等処理実績】</t>
   </si>
   <si>
     <t>営業日</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>4月</t>
@@ -692,38 +695,38 @@
         <v>19</v>
       </c>
       <c r="F3" s="1">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>22</v>
       </c>
-      <c r="H3" s="1">
-        <v>21</v>
-      </c>
       <c r="I3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
       </c>
-      <c r="L3" s="1">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1">
-        <v>18</v>
-      </c>
-      <c r="O3" s="1">
-        <v>17</v>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="P3" s="1">
         <f>SUM(D3:O3)</f>
-        <v>243</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -731,236 +734,236 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
-        <v>1614</v>
+        <v>1381</v>
       </c>
       <c r="E5" s="7">
-        <v>2131</v>
+        <v>1458</v>
       </c>
       <c r="F5" s="7">
-        <v>1359</v>
+        <v>1437</v>
       </c>
       <c r="G5" s="6">
-        <v>1549</v>
+        <v>1088</v>
       </c>
       <c r="H5" s="6">
-        <v>1514</v>
+        <v>1585</v>
       </c>
       <c r="I5" s="6">
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="J5" s="6">
-        <v>1497</v>
+        <v>659</v>
       </c>
       <c r="K5" s="6">
-        <v>1647</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1474</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1537</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1492</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1742</v>
+        <v>674</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="P5" s="8">
         <f>SUM(D5:O5)</f>
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11">
-        <v>718</v>
+        <v>949</v>
       </c>
       <c r="E6" s="12">
-        <v>997</v>
+        <v>806</v>
       </c>
       <c r="F6" s="12">
-        <v>730</v>
+        <v>815</v>
       </c>
       <c r="G6" s="12">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="H6" s="12">
-        <v>808</v>
+        <v>950</v>
       </c>
       <c r="I6" s="12">
-        <v>785</v>
+        <v>956</v>
       </c>
       <c r="J6" s="12">
-        <v>844</v>
+        <v>896</v>
       </c>
       <c r="K6" s="12">
-        <v>854</v>
-      </c>
-      <c r="L6" s="12">
-        <v>801</v>
-      </c>
-      <c r="M6" s="12">
-        <v>887</v>
-      </c>
-      <c r="N6" s="12">
-        <v>984</v>
-      </c>
-      <c r="O6" s="12">
-        <v>1015</v>
+        <v>896</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="P6" s="13">
         <f t="shared" ref="P6:P9" si="0">SUM(D6:O6)</f>
-        <v>0</v>
+        <v>7099</v>
       </c>
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="11">
-        <v>3315</v>
+        <v>2422</v>
       </c>
       <c r="E7" s="11">
-        <v>2725</v>
+        <v>2481</v>
       </c>
       <c r="F7" s="11">
-        <v>2224</v>
+        <v>2833</v>
       </c>
       <c r="G7" s="15">
-        <v>2676</v>
+        <v>2193</v>
       </c>
       <c r="H7" s="15">
-        <v>2535</v>
+        <v>2331</v>
       </c>
       <c r="I7" s="15">
-        <v>1820</v>
+        <v>1693</v>
       </c>
       <c r="J7" s="15">
-        <v>2510</v>
+        <v>2170</v>
       </c>
       <c r="K7" s="15">
-        <v>2542</v>
-      </c>
-      <c r="L7" s="15">
-        <v>2248</v>
-      </c>
-      <c r="M7" s="15">
-        <v>2042</v>
-      </c>
-      <c r="N7" s="15">
-        <v>1926</v>
-      </c>
-      <c r="O7" s="15">
-        <v>3167</v>
+        <v>1996</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18119</v>
       </c>
       <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="15">
-        <v>2762</v>
+        <v>2904</v>
       </c>
       <c r="E8" s="11">
-        <v>2783</v>
+        <v>3037</v>
       </c>
       <c r="F8" s="11">
-        <v>2767</v>
+        <v>3546</v>
       </c>
       <c r="G8" s="15">
-        <v>2990</v>
+        <v>2882</v>
       </c>
       <c r="H8" s="15">
-        <v>2706</v>
+        <v>2991</v>
       </c>
       <c r="I8" s="15">
-        <v>2453</v>
+        <v>3037</v>
       </c>
       <c r="J8" s="15">
-        <v>2814</v>
+        <v>3074</v>
       </c>
       <c r="K8" s="15">
-        <v>2633</v>
-      </c>
-      <c r="L8" s="15">
-        <v>2491</v>
-      </c>
-      <c r="M8" s="15">
-        <v>2701</v>
-      </c>
-      <c r="N8" s="15">
-        <v>2570</v>
-      </c>
-      <c r="O8" s="15">
-        <v>2997</v>
+        <v>3383</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24854</v>
       </c>
       <c r="Q8" s="16"/>
     </row>
@@ -968,90 +971,90 @@
       <c r="A9" s="1"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="15">
-        <v>2939</v>
+        <v>2890</v>
       </c>
       <c r="E9" s="11">
-        <v>3502</v>
+        <v>3553</v>
       </c>
       <c r="F9" s="11">
-        <v>3823</v>
+        <v>4179</v>
       </c>
       <c r="G9" s="15">
-        <v>3910</v>
+        <v>3678</v>
       </c>
       <c r="H9" s="15">
-        <v>3523</v>
+        <v>3760</v>
       </c>
       <c r="I9" s="15">
-        <v>3408</v>
+        <v>4205</v>
       </c>
       <c r="J9" s="15">
-        <v>3801</v>
+        <v>3740</v>
       </c>
       <c r="K9" s="15">
-        <v>3595</v>
-      </c>
-      <c r="L9" s="15">
-        <v>4108</v>
-      </c>
-      <c r="M9" s="15">
-        <v>3570</v>
-      </c>
-      <c r="N9" s="15">
-        <v>4148</v>
-      </c>
-      <c r="O9" s="15">
-        <v>4052</v>
+        <v>3492</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="P9" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29497</v>
       </c>
       <c r="Q9" s="22">
         <f>P8+P9</f>
-        <v>0</v>
+        <v>54351</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23">
         <f>SUM(D5:D9)</f>
-        <v>0</v>
+        <v>10546</v>
       </c>
       <c r="E10" s="23">
         <f t="shared" ref="E10:N10" si="1">SUM(E5:E9)</f>
-        <v>0</v>
+        <v>11335</v>
       </c>
       <c r="F10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12810</v>
       </c>
       <c r="G10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10672</v>
       </c>
       <c r="H10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11617</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11303</v>
       </c>
       <c r="J10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10539</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10441</v>
       </c>
       <c r="L10" s="23">
         <f t="shared" si="1"/>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="P10" s="24">
         <f>SUM(P5:P9)</f>
-        <v>0</v>
+        <v>89263</v>
       </c>
       <c r="Q10" s="22"/>
     </row>
@@ -1116,7 +1119,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1139,189 +1142,189 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
-        <v>1621</v>
+        <v>1729</v>
       </c>
       <c r="E15" s="7">
-        <v>1771</v>
+        <v>1928</v>
       </c>
       <c r="F15" s="7">
-        <v>2461</v>
+        <v>1812</v>
       </c>
       <c r="G15" s="6">
-        <v>2239</v>
+        <v>1968</v>
       </c>
       <c r="H15" s="6">
-        <v>2033</v>
+        <v>1634</v>
       </c>
       <c r="I15" s="6">
-        <v>1970</v>
+        <v>1554</v>
       </c>
       <c r="J15" s="6">
-        <v>3388</v>
+        <v>2300</v>
       </c>
       <c r="K15" s="6">
-        <v>1713</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1762</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1625</v>
-      </c>
-      <c r="N15" s="12">
-        <v>1747</v>
-      </c>
-      <c r="O15" s="6">
-        <v>1821</v>
+        <v>2083</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="P15" s="8">
         <f>SUM(D15:O15)</f>
-        <v>0</v>
+        <v>15008</v>
       </c>
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="12">
-        <v>1154</v>
+        <v>1220</v>
       </c>
       <c r="E16" s="27">
-        <v>1312</v>
+        <v>1192</v>
       </c>
       <c r="F16" s="27">
-        <v>1300</v>
+        <v>1886</v>
       </c>
       <c r="G16" s="12">
-        <v>1742</v>
+        <v>1180</v>
       </c>
       <c r="H16" s="12">
-        <v>1364</v>
+        <v>1552</v>
       </c>
       <c r="I16" s="12">
-        <v>1051</v>
+        <v>1641</v>
       </c>
       <c r="J16" s="12">
-        <v>1815</v>
+        <v>1343</v>
       </c>
       <c r="K16" s="12">
-        <v>1357</v>
-      </c>
-      <c r="L16" s="12">
-        <v>1165</v>
-      </c>
-      <c r="M16" s="12">
-        <v>1374</v>
-      </c>
-      <c r="N16" s="15">
-        <v>908</v>
-      </c>
-      <c r="O16" s="12">
-        <v>1109</v>
+        <v>1087</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" ref="P16:P18" si="2">SUM(D16:O16)</f>
-        <v>0</v>
+        <v>11101</v>
       </c>
       <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="12">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="E17" s="12">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="F17" s="12">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="G17" s="12">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="H17" s="12">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="I17" s="12">
-        <v>457</v>
+        <v>203</v>
       </c>
       <c r="J17" s="12">
-        <v>487</v>
+        <v>328</v>
       </c>
       <c r="K17" s="12">
-        <v>235</v>
-      </c>
-      <c r="L17" s="12">
-        <v>181</v>
-      </c>
-      <c r="M17" s="12">
-        <v>198</v>
-      </c>
-      <c r="N17" s="12">
-        <v>217</v>
-      </c>
-      <c r="O17" s="12">
-        <v>257</v>
+        <v>228</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1882</v>
       </c>
       <c r="Q17" s="16"/>
     </row>
@@ -1329,77 +1332,91 @@
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
       <c r="C18" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="15">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E18" s="15">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="F18" s="15">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G18" s="15">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="H18" s="15">
-        <v>179</v>
-      </c>
-      <c r="I18" s="15"/>
+        <v>183</v>
+      </c>
+      <c r="I18" s="15">
+        <v>170</v>
+      </c>
       <c r="J18" s="15">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K18" s="15">
-        <v>205</v>
-      </c>
-      <c r="L18" s="15">
-        <v>138</v>
-      </c>
-      <c r="M18" s="15">
-        <v>122</v>
-      </c>
-      <c r="N18" s="15">
-        <v>127</v>
-      </c>
-      <c r="O18" s="15">
-        <v>158</v>
+        <v>106</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="P18" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="Q18" s="22">
         <f>P17+P18</f>
-        <v>0</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23">
         <f>SUM(D15:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="23"/>
+        <v>3385</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" ref="E19:O19" si="3">SUM(E15:E18)</f>
+        <v>3485</v>
+      </c>
       <c r="F19" s="23">
-        <f t="shared" ref="F19:O19" si="3">SUM(F15:F18)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4079</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+        <v>3522</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="3"/>
+        <v>3551</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="3"/>
+        <v>3568</v>
+      </c>
       <c r="J19" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="23"/>
+        <v>4200</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="3"/>
+        <v>3504</v>
+      </c>
       <c r="L19" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1418,7 +1435,7 @@
       </c>
       <c r="P19" s="24">
         <f>SUM(P15:P18)</f>
-        <v>0</v>
+        <v>29294</v>
       </c>
       <c r="Q19" s="22"/>
     </row>

--- a/年度処理件数集計ツール.xlsx
+++ b/年度処理件数集計ツール.xlsx
@@ -11,15 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>【戸籍等処理実績】</t>
   </si>
   <si>
     <t>営業日</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>4月</t>
@@ -695,34 +692,34 @@
         <v>19</v>
       </c>
       <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
         <v>22</v>
       </c>
-      <c r="G3" s="1">
-        <v>20</v>
-      </c>
       <c r="H3" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>2</v>
+      <c r="L3" s="1">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1">
+        <v>17</v>
       </c>
       <c r="P3" s="1">
         <f>SUM(D3:O3)</f>
@@ -734,86 +731,86 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
-        <v>1381</v>
+        <v>1614</v>
       </c>
       <c r="E5" s="7">
-        <v>1458</v>
+        <v>2131</v>
       </c>
       <c r="F5" s="7">
-        <v>1437</v>
+        <v>1359</v>
       </c>
       <c r="G5" s="6">
-        <v>1088</v>
+        <v>1549</v>
       </c>
       <c r="H5" s="6">
-        <v>1585</v>
+        <v>1514</v>
       </c>
       <c r="I5" s="6">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="J5" s="6">
-        <v>659</v>
+        <v>1497</v>
       </c>
       <c r="K5" s="6">
-        <v>674</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>2</v>
+        <v>1647</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1474</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1537</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1492</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1742</v>
       </c>
       <c r="P5" s="8">
         <f>SUM(D5:O5)</f>
@@ -824,44 +821,44 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11">
-        <v>949</v>
+        <v>718</v>
       </c>
       <c r="E6" s="12">
-        <v>806</v>
+        <v>997</v>
       </c>
       <c r="F6" s="12">
-        <v>815</v>
+        <v>730</v>
       </c>
       <c r="G6" s="12">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="H6" s="12">
-        <v>950</v>
+        <v>808</v>
       </c>
       <c r="I6" s="12">
-        <v>956</v>
+        <v>785</v>
       </c>
       <c r="J6" s="12">
-        <v>896</v>
+        <v>844</v>
       </c>
       <c r="K6" s="12">
-        <v>896</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>2</v>
+        <v>854</v>
+      </c>
+      <c r="L6" s="12">
+        <v>801</v>
+      </c>
+      <c r="M6" s="12">
+        <v>887</v>
+      </c>
+      <c r="N6" s="12">
+        <v>984</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1015</v>
       </c>
       <c r="P6" s="13">
         <f t="shared" ref="P6:P9" si="0">SUM(D6:O6)</f>
@@ -872,44 +869,44 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="11">
-        <v>2422</v>
+        <v>3315</v>
       </c>
       <c r="E7" s="11">
-        <v>2481</v>
+        <v>2725</v>
       </c>
       <c r="F7" s="11">
-        <v>2833</v>
+        <v>2224</v>
       </c>
       <c r="G7" s="15">
-        <v>2193</v>
+        <v>2676</v>
       </c>
       <c r="H7" s="15">
-        <v>2331</v>
+        <v>2535</v>
       </c>
       <c r="I7" s="15">
-        <v>1693</v>
+        <v>1820</v>
       </c>
       <c r="J7" s="15">
-        <v>2170</v>
+        <v>2510</v>
       </c>
       <c r="K7" s="15">
-        <v>1996</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>2</v>
+        <v>2542</v>
+      </c>
+      <c r="L7" s="15">
+        <v>2248</v>
+      </c>
+      <c r="M7" s="15">
+        <v>2042</v>
+      </c>
+      <c r="N7" s="15">
+        <v>1926</v>
+      </c>
+      <c r="O7" s="15">
+        <v>3167</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="0"/>
@@ -920,46 +917,46 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="15">
-        <v>2904</v>
+        <v>2762</v>
       </c>
       <c r="E8" s="11">
-        <v>3037</v>
+        <v>2783</v>
       </c>
       <c r="F8" s="11">
-        <v>3546</v>
+        <v>2767</v>
       </c>
       <c r="G8" s="15">
-        <v>2882</v>
+        <v>2990</v>
       </c>
       <c r="H8" s="15">
-        <v>2991</v>
+        <v>2706</v>
       </c>
       <c r="I8" s="15">
-        <v>3037</v>
+        <v>2453</v>
       </c>
       <c r="J8" s="15">
-        <v>3074</v>
+        <v>2814</v>
       </c>
       <c r="K8" s="15">
-        <v>3383</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>2</v>
+        <v>2633</v>
+      </c>
+      <c r="L8" s="15">
+        <v>2491</v>
+      </c>
+      <c r="M8" s="15">
+        <v>2701</v>
+      </c>
+      <c r="N8" s="15">
+        <v>2570</v>
+      </c>
+      <c r="O8" s="15">
+        <v>2997</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="0"/>
@@ -971,43 +968,43 @@
       <c r="A9" s="1"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="15">
-        <v>2890</v>
+        <v>2939</v>
       </c>
       <c r="E9" s="11">
-        <v>3553</v>
+        <v>3502</v>
       </c>
       <c r="F9" s="11">
-        <v>4179</v>
+        <v>3823</v>
       </c>
       <c r="G9" s="15">
-        <v>3678</v>
+        <v>3910</v>
       </c>
       <c r="H9" s="15">
-        <v>3760</v>
+        <v>3523</v>
       </c>
       <c r="I9" s="15">
-        <v>4205</v>
+        <v>3408</v>
       </c>
       <c r="J9" s="15">
-        <v>3740</v>
+        <v>3801</v>
       </c>
       <c r="K9" s="15">
-        <v>3492</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>2</v>
+        <v>3595</v>
+      </c>
+      <c r="L9" s="15">
+        <v>4108</v>
+      </c>
+      <c r="M9" s="15">
+        <v>3570</v>
+      </c>
+      <c r="N9" s="15">
+        <v>4148</v>
+      </c>
+      <c r="O9" s="15">
+        <v>4052</v>
       </c>
       <c r="P9" s="21">
         <f t="shared" si="0"/>
@@ -1021,7 +1018,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23">
@@ -1119,7 +1116,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1142,87 +1139,87 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="25" t="s">
         <v>14</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>15</v>
       </c>
       <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
-        <v>1729</v>
+        <v>1621</v>
       </c>
       <c r="E15" s="7">
-        <v>1928</v>
+        <v>1771</v>
       </c>
       <c r="F15" s="7">
-        <v>1812</v>
+        <v>2461</v>
       </c>
       <c r="G15" s="6">
-        <v>1968</v>
+        <v>2239</v>
       </c>
       <c r="H15" s="6">
-        <v>1634</v>
+        <v>2033</v>
       </c>
       <c r="I15" s="6">
-        <v>1554</v>
+        <v>1970</v>
       </c>
       <c r="J15" s="6">
-        <v>2300</v>
+        <v>3388</v>
       </c>
       <c r="K15" s="6">
-        <v>2083</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>2</v>
+        <v>1713</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1762</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1625</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1747</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1821</v>
       </c>
       <c r="P15" s="8">
         <f>SUM(D15:O15)</f>
@@ -1233,44 +1230,44 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="12">
-        <v>1220</v>
+        <v>1154</v>
       </c>
       <c r="E16" s="27">
-        <v>1192</v>
+        <v>1312</v>
       </c>
       <c r="F16" s="27">
-        <v>1886</v>
+        <v>1300</v>
       </c>
       <c r="G16" s="12">
-        <v>1180</v>
+        <v>1742</v>
       </c>
       <c r="H16" s="12">
-        <v>1552</v>
+        <v>1364</v>
       </c>
       <c r="I16" s="12">
-        <v>1641</v>
+        <v>1051</v>
       </c>
       <c r="J16" s="12">
-        <v>1343</v>
+        <v>1815</v>
       </c>
       <c r="K16" s="12">
-        <v>1087</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>2</v>
+        <v>1357</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1165</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1374</v>
+      </c>
+      <c r="N16" s="15">
+        <v>908</v>
+      </c>
+      <c r="O16" s="12">
+        <v>1109</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" ref="P16:P18" si="2">SUM(D16:O16)</f>
@@ -1281,46 +1278,46 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="12">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="E17" s="12">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="F17" s="12">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="G17" s="12">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="H17" s="12">
-        <v>182</v>
+        <v>413</v>
       </c>
       <c r="I17" s="12">
-        <v>203</v>
+        <v>457</v>
       </c>
       <c r="J17" s="12">
-        <v>328</v>
+        <v>487</v>
       </c>
       <c r="K17" s="12">
-        <v>228</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>2</v>
+        <v>235</v>
+      </c>
+      <c r="L17" s="12">
+        <v>181</v>
+      </c>
+      <c r="M17" s="12">
+        <v>198</v>
+      </c>
+      <c r="N17" s="12">
+        <v>217</v>
+      </c>
+      <c r="O17" s="12">
+        <v>257</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="2"/>
@@ -1332,43 +1329,41 @@
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
       <c r="C18" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="15">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="E18" s="15">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F18" s="15">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="G18" s="15">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="H18" s="15">
-        <v>183</v>
-      </c>
-      <c r="I18" s="15">
-        <v>170</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="15">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K18" s="15">
-        <v>106</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>2</v>
+        <v>205</v>
+      </c>
+      <c r="L18" s="15">
+        <v>138</v>
+      </c>
+      <c r="M18" s="15">
+        <v>122</v>
+      </c>
+      <c r="N18" s="15">
+        <v>127</v>
+      </c>
+      <c r="O18" s="15">
+        <v>158</v>
       </c>
       <c r="P18" s="21">
         <f t="shared" si="2"/>
@@ -1382,7 +1377,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23">

--- a/年度処理件数集計ツール.xlsx
+++ b/年度処理件数集計ツール.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
   <si>
     <t>【戸籍等処理実績】</t>
   </si>
   <si>
     <t>営業日</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>4月</t>
@@ -692,38 +695,38 @@
         <v>19</v>
       </c>
       <c r="F3" s="1">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>22</v>
       </c>
-      <c r="H3" s="1">
-        <v>21</v>
-      </c>
       <c r="I3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
       </c>
-      <c r="L3" s="1">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1">
-        <v>18</v>
-      </c>
-      <c r="O3" s="1">
-        <v>17</v>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="P3" s="1">
         <f>SUM(D3:O3)</f>
-        <v>163</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -731,236 +734,236 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
-        <v>1614</v>
+        <v>1381</v>
       </c>
       <c r="E5" s="7">
-        <v>2131</v>
+        <v>1458</v>
       </c>
       <c r="F5" s="7">
-        <v>1359</v>
+        <v>1437</v>
       </c>
       <c r="G5" s="6">
-        <v>1549</v>
+        <v>1088</v>
       </c>
       <c r="H5" s="6">
-        <v>1514</v>
+        <v>1585</v>
       </c>
       <c r="I5" s="6">
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="J5" s="6">
-        <v>1497</v>
+        <v>659</v>
       </c>
       <c r="K5" s="6">
-        <v>1647</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1474</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1537</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1492</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1742</v>
+        <v>674</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="P5" s="8">
         <f>SUM(D5:O5)</f>
-        <v>9694</v>
+        <v>6378</v>
       </c>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11">
-        <v>718</v>
+        <v>949</v>
       </c>
       <c r="E6" s="12">
-        <v>997</v>
+        <v>806</v>
       </c>
       <c r="F6" s="12">
-        <v>730</v>
+        <v>815</v>
       </c>
       <c r="G6" s="12">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="H6" s="12">
-        <v>808</v>
+        <v>950</v>
       </c>
       <c r="I6" s="12">
-        <v>785</v>
+        <v>956</v>
       </c>
       <c r="J6" s="12">
-        <v>844</v>
+        <v>896</v>
       </c>
       <c r="K6" s="12">
-        <v>854</v>
-      </c>
-      <c r="L6" s="12">
-        <v>801</v>
-      </c>
-      <c r="M6" s="12">
-        <v>887</v>
-      </c>
-      <c r="N6" s="12">
-        <v>984</v>
-      </c>
-      <c r="O6" s="12">
-        <v>1015</v>
+        <v>896</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="P6" s="13">
         <f t="shared" ref="P6:P9" si="0">SUM(D6:O6)</f>
-        <v>7099</v>
+        <v>9269</v>
       </c>
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="11">
-        <v>3315</v>
+        <v>2422</v>
       </c>
       <c r="E7" s="11">
-        <v>2725</v>
+        <v>2481</v>
       </c>
       <c r="F7" s="11">
-        <v>2224</v>
+        <v>2833</v>
       </c>
       <c r="G7" s="15">
-        <v>2676</v>
+        <v>2193</v>
       </c>
       <c r="H7" s="15">
-        <v>2535</v>
+        <v>2331</v>
       </c>
       <c r="I7" s="15">
-        <v>1820</v>
+        <v>1693</v>
       </c>
       <c r="J7" s="15">
-        <v>2510</v>
+        <v>2170</v>
       </c>
       <c r="K7" s="15">
-        <v>2542</v>
-      </c>
-      <c r="L7" s="15">
-        <v>2248</v>
-      </c>
-      <c r="M7" s="15">
-        <v>2042</v>
-      </c>
-      <c r="N7" s="15">
-        <v>1926</v>
-      </c>
-      <c r="O7" s="15">
-        <v>3167</v>
+        <v>1996</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="0"/>
-        <v>18119</v>
+        <v>21818</v>
       </c>
       <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="15">
-        <v>2762</v>
+        <v>2904</v>
       </c>
       <c r="E8" s="11">
-        <v>2783</v>
+        <v>3037</v>
       </c>
       <c r="F8" s="11">
-        <v>2767</v>
+        <v>3546</v>
       </c>
       <c r="G8" s="15">
-        <v>2990</v>
+        <v>2882</v>
       </c>
       <c r="H8" s="15">
-        <v>2706</v>
+        <v>2991</v>
       </c>
       <c r="I8" s="15">
-        <v>2453</v>
+        <v>3037</v>
       </c>
       <c r="J8" s="15">
-        <v>2814</v>
+        <v>3074</v>
       </c>
       <c r="K8" s="15">
-        <v>2633</v>
-      </c>
-      <c r="L8" s="15">
-        <v>2491</v>
-      </c>
-      <c r="M8" s="15">
-        <v>2701</v>
-      </c>
-      <c r="N8" s="15">
-        <v>2570</v>
-      </c>
-      <c r="O8" s="15">
-        <v>2997</v>
+        <v>3383</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="0"/>
-        <v>24854</v>
+        <v>34206</v>
       </c>
       <c r="Q8" s="16"/>
     </row>
@@ -968,102 +971,102 @@
       <c r="A9" s="1"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="15">
-        <v>2939</v>
+        <v>2890</v>
       </c>
       <c r="E9" s="11">
-        <v>3502</v>
+        <v>3553</v>
       </c>
       <c r="F9" s="11">
-        <v>3823</v>
+        <v>4179</v>
       </c>
       <c r="G9" s="15">
-        <v>3910</v>
+        <v>3678</v>
       </c>
       <c r="H9" s="15">
-        <v>3523</v>
+        <v>3760</v>
       </c>
       <c r="I9" s="15">
-        <v>3408</v>
+        <v>4205</v>
       </c>
       <c r="J9" s="15">
-        <v>3801</v>
+        <v>3740</v>
       </c>
       <c r="K9" s="15">
-        <v>3595</v>
-      </c>
-      <c r="L9" s="15">
-        <v>4108</v>
-      </c>
-      <c r="M9" s="15">
-        <v>3570</v>
-      </c>
-      <c r="N9" s="15">
-        <v>4148</v>
-      </c>
-      <c r="O9" s="15">
-        <v>4052</v>
+        <v>3492</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="P9" s="21">
         <f t="shared" si="0"/>
-        <v>29497</v>
+        <v>40978</v>
       </c>
       <c r="Q9" s="22">
         <f>P8+P9</f>
-        <v>54351</v>
+        <v>75184</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23">
         <f>SUM(D5:D9)</f>
-        <v>10546</v>
+        <v>10415</v>
       </c>
       <c r="E10" s="23">
         <f t="shared" ref="E10:N10" si="1">SUM(E5:E9)</f>
-        <v>11335</v>
+        <v>10242</v>
       </c>
       <c r="F10" s="23">
         <f t="shared" si="1"/>
-        <v>12810</v>
+        <v>10567</v>
       </c>
       <c r="G10" s="23">
         <f t="shared" si="1"/>
-        <v>10672</v>
+        <v>10059</v>
       </c>
       <c r="H10" s="23">
         <f t="shared" si="1"/>
-        <v>11617</v>
+        <v>10488</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="1"/>
-        <v>11303</v>
+        <v>9665</v>
       </c>
       <c r="J10" s="23">
         <f t="shared" si="1"/>
-        <v>10539</v>
+        <v>11032</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="1"/>
-        <v>10441</v>
+        <v>10604</v>
       </c>
       <c r="L10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10068</v>
       </c>
       <c r="M10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9706</v>
       </c>
       <c r="N10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9803</v>
       </c>
       <c r="O10" s="23">
         <f>SUM(O5:O9)</f>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="P10" s="24">
         <f>SUM(P5:P9)</f>
-        <v>89263</v>
+        <v>112649</v>
       </c>
       <c r="Q10" s="22"/>
     </row>
@@ -1116,7 +1119,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1139,189 +1142,189 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
-        <v>1621</v>
+        <v>1729</v>
       </c>
       <c r="E15" s="7">
-        <v>1771</v>
+        <v>1928</v>
       </c>
       <c r="F15" s="7">
-        <v>2461</v>
+        <v>1812</v>
       </c>
       <c r="G15" s="6">
-        <v>2239</v>
+        <v>1968</v>
       </c>
       <c r="H15" s="6">
-        <v>2033</v>
+        <v>1634</v>
       </c>
       <c r="I15" s="6">
-        <v>1970</v>
+        <v>1554</v>
       </c>
       <c r="J15" s="6">
-        <v>3388</v>
+        <v>2300</v>
       </c>
       <c r="K15" s="6">
-        <v>1713</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1762</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1625</v>
-      </c>
-      <c r="N15" s="12">
-        <v>1747</v>
-      </c>
-      <c r="O15" s="6">
-        <v>1821</v>
+        <v>2083</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="P15" s="8">
         <f>SUM(D15:O15)</f>
-        <v>15008</v>
+        <v>22598</v>
       </c>
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="12">
-        <v>1154</v>
+        <v>1220</v>
       </c>
       <c r="E16" s="27">
-        <v>1312</v>
+        <v>1192</v>
       </c>
       <c r="F16" s="27">
-        <v>1300</v>
+        <v>1886</v>
       </c>
       <c r="G16" s="12">
-        <v>1742</v>
+        <v>1180</v>
       </c>
       <c r="H16" s="12">
-        <v>1364</v>
+        <v>1552</v>
       </c>
       <c r="I16" s="12">
-        <v>1051</v>
+        <v>1641</v>
       </c>
       <c r="J16" s="12">
-        <v>1815</v>
+        <v>1343</v>
       </c>
       <c r="K16" s="12">
-        <v>1357</v>
-      </c>
-      <c r="L16" s="12">
-        <v>1165</v>
-      </c>
-      <c r="M16" s="12">
-        <v>1374</v>
-      </c>
-      <c r="N16" s="15">
-        <v>908</v>
-      </c>
-      <c r="O16" s="12">
-        <v>1109</v>
+        <v>1087</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" ref="P16:P18" si="2">SUM(D16:O16)</f>
-        <v>11101</v>
+        <v>13674</v>
       </c>
       <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="12">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="E17" s="12">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="F17" s="12">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="G17" s="12">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="H17" s="12">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="I17" s="12">
-        <v>457</v>
+        <v>203</v>
       </c>
       <c r="J17" s="12">
-        <v>487</v>
+        <v>328</v>
       </c>
       <c r="K17" s="12">
-        <v>235</v>
-      </c>
-      <c r="L17" s="12">
-        <v>181</v>
-      </c>
-      <c r="M17" s="12">
-        <v>198</v>
-      </c>
-      <c r="N17" s="12">
-        <v>217</v>
-      </c>
-      <c r="O17" s="12">
-        <v>257</v>
+        <v>228</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="2"/>
-        <v>1882</v>
+        <v>5169</v>
       </c>
       <c r="Q17" s="16"/>
     </row>
@@ -1329,100 +1332,102 @@
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
       <c r="C18" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="15">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E18" s="15">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="F18" s="15">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G18" s="15">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="H18" s="15">
-        <v>179</v>
-      </c>
-      <c r="I18" s="15"/>
+        <v>183</v>
+      </c>
+      <c r="I18" s="15">
+        <v>170</v>
+      </c>
       <c r="J18" s="15">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K18" s="15">
-        <v>205</v>
-      </c>
-      <c r="L18" s="15">
-        <v>138</v>
-      </c>
-      <c r="M18" s="15">
-        <v>122</v>
-      </c>
-      <c r="N18" s="15">
-        <v>127</v>
-      </c>
-      <c r="O18" s="15">
-        <v>158</v>
+        <v>106</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="P18" s="21">
         <f t="shared" si="2"/>
-        <v>1303</v>
+        <v>1569</v>
       </c>
       <c r="Q18" s="22">
         <f>P17+P18</f>
-        <v>3185</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23">
         <f>SUM(D15:D18)</f>
-        <v>3385</v>
+        <v>3173</v>
       </c>
       <c r="E19" s="23">
         <f t="shared" ref="E19:O19" si="3">SUM(E15:E18)</f>
-        <v>3485</v>
+        <v>3530</v>
       </c>
       <c r="F19" s="23">
         <f t="shared" si="3"/>
-        <v>4079</v>
+        <v>4370</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="3"/>
-        <v>3522</v>
+        <v>3407</v>
       </c>
       <c r="H19" s="23">
         <f t="shared" si="3"/>
-        <v>3551</v>
+        <v>4517</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="3"/>
-        <v>3568</v>
+        <v>3829</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" si="3"/>
-        <v>4200</v>
+        <v>4254</v>
       </c>
       <c r="K19" s="23">
         <f t="shared" si="3"/>
-        <v>3504</v>
+        <v>3877</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4598</v>
       </c>
       <c r="M19" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3608</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3847</v>
       </c>
       <c r="O19" s="23">
         <f t="shared" si="3"/>
@@ -1430,7 +1435,7 @@
       </c>
       <c r="P19" s="24">
         <f>SUM(P15:P18)</f>
-        <v>29294</v>
+        <v>43010</v>
       </c>
       <c r="Q19" s="22"/>
     </row>
